--- a/src/main/resources/123-madao_service/service-base_attribute.xlsx
+++ b/src/main/resources/123-madao_service/service-base_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="157">
   <si>
     <t>类名</t>
   </si>
@@ -441,6 +441,12 @@
     <t>com.madao.base.controller.backstage.LoginLogController</t>
   </si>
   <si>
+    <t>findLoginLogByCondition(com.madao.model.dto.base.LoginLogDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.base.LoginLogDto,org.springframework.data.domain.Pageable</t>
+  </si>
+  <si>
     <t>insertLoginLog(com.madao.model.dto.base.LoginLogDto)</t>
   </si>
   <si>
@@ -462,13 +468,22 @@
     <t>fetchDictType(com.madao.model.dto.base.DictDto)</t>
   </si>
   <si>
-    <t>findResByCondition(org.springframework.data.domain.Pageable)</t>
+    <t>findResByCondition(com.madao.model.dto.base.DictDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.base.DictDto,org.springframework.data.domain.Pageable</t>
   </si>
   <si>
     <t>com.madao.base.controller.backstage.OptLogController</t>
   </si>
   <si>
     <t>findOptLogByPrimaryKey(java.lang.String)</t>
+  </si>
+  <si>
+    <t>findOptLogByCondition(com.madao.model.dto.base.OptLogDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.base.OptLogDto,org.springframework.data.domain.Pageable</t>
   </si>
 </sst>
 </file>
@@ -1710,10 +1725,10 @@
         <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
         <v>135</v>
@@ -1727,7 +1742,7 @@
         <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>49</v>
@@ -1744,7 +1759,7 @@
         <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1758,10 +1773,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>66</v>
@@ -1775,10 +1790,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>66</v>
@@ -1792,7 +1807,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -1809,10 +1824,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1826,10 +1841,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>66</v>
@@ -1843,7 +1858,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
         <v>123</v>
@@ -1860,13 +1875,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
         <v>135</v>
@@ -1877,10 +1892,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
@@ -1894,13 +1909,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
         <v>135</v>
@@ -1911,7 +1926,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1928,10 +1943,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
